--- a/biology/Microbiologie/Gélose_R2A/Gélose_R2A.xlsx
+++ b/biology/Microbiologie/Gélose_R2A/Gélose_R2A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_R2A</t>
+          <t>Gélose_R2A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gélose R2A (pour Reasoner's 2A Agar) est un milieu de culture[1] développé afin de cultiver des bactéries qui vivent habituellement dans l'eau potable[2]. Ces bactéries ont tendance à avoir une croissance lente et seraient rapidement éliminées par des espèces à croissance plus rapide si elles étaient cultivées sur un milieu plus riche.
-Depuis qu'il a été créé en 1979[3], ce milieu s'est révélé utile pour cultiver d'autres types de bactéries qui ne se développent pas facilement sur des milieux organiques plus riches et plus complexes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gélose R2A (pour Reasoner's 2A Agar) est un milieu de culture développé afin de cultiver des bactéries qui vivent habituellement dans l'eau potable. Ces bactéries ont tendance à avoir une croissance lente et seraient rapidement éliminées par des espèces à croissance plus rapide si elles étaient cultivées sur un milieu plus riche.
+Depuis qu'il a été créé en 1979, ce milieu s'est révélé utile pour cultiver d'autres types de bactéries qui ne se développent pas facilement sur des milieux organiques plus riches et plus complexes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_R2A</t>
+          <t>Gélose_R2A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose R2A est utilisée pour les numérations hétérotrophiques des bactéries dans les eaux potables traitées par la technique de filtration sur membrane ou par ensemencement sur gélose. Ce milieu, développé par Reasoner et Gelreich, est supérieur aux milieux classiques pour le dénombrement des bactéries stressées ou résistantes au chlore. L’utilisation d’un milieu pauvre en nutriments favorise la pousse de ces bactéries au détriment des espèces à croissance rapide, permettant ainsi leur numération.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_R2A</t>
+          <t>Gélose_R2A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Composition caractéristique (en g/L)[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Protéose peptone : 0,5
 Acides casamino : 0,5
